--- a/数据整理/stocks/A股/上证主板/603039-ST泛微.xlsx
+++ b/数据整理/stocks/A股/上证主板/603039-ST泛微.xlsx
@@ -6,8 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,6 +451,58 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -537,56 +589,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603039-ST泛微.xlsx
+++ b/数据整理/stocks/A股/上证主板/603039-ST泛微.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +483,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q2</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.68</v>
       </c>
     </row>
@@ -498,6 +515,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6730</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011930</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏时代前沿一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5478</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002980</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏创新前沿股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4614</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2176</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011931</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏时代前沿一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011924</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实港股互联网产业核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011925</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实港股互联网产业核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603039-ST泛微.xlsx
+++ b/数据整理/stocks/A股/上证主板/603039-ST泛微.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>2.27</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.68</v>
       </c>
     </row>
@@ -515,6 +532,858 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9357</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011930</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏时代前沿一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7163</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002980</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏创新前沿股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6408</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014292</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实产业领先混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6130</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4686</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2977</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011931</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏时代前沿一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012432</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银安泰混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>35.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013554</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信澳远见价值混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013555</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信澳远见价值混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014293</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实产业领先混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012019</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银安泽混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>31.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012431</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银安泰混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>35.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012020</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银安泽混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>31.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -912,7 +1781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
